--- a/biology/Histoire de la zoologie et de la botanique/Heinrich_Frey/Heinrich_Frey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heinrich_Frey/Heinrich_Frey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Frey est un entomologiste suisse d’origine allemande, né le 15 juin 1822 à Francfort-sur-le-Main et mort le 17 janvier 1890 à Zurich.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frey fait ses études au gymnasium de Francfort jusqu’à l’âge de seize ans. Il rencontre alors le sénateur Carl Heinrich Georg von Heyden (1793-1866) qui l’initie à l’entomologie. Il entre à l’université de Francfort-sur-le-Main puis voyage à Bonn, Berlin et Göttingen.
 Lorsqu’il retourne à Francfort en 1839, von Heyden lui fait découvrir un article de Philipp Christoph Zeller (1808-1883), Attempt at a Classification of the Tineinae, qui venait de paraître dans la revue Isis de Lorenz Oken (1779-1851). Avant cette publication, la classification de ce groupe de papillons était pour le moins confuse et Frey est impressionné par l’organisation réalisée par Zeller.
